--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -65,7 +65,7 @@
     <t>CodeableConceptĵ</t>
   </si>
   <si>
-    <t>optional</t>
+    <t>prohibited</t>
   </si>
 </sst>
 </file>
